--- a/specs/Coliform-sample-column-defs.xlsx
+++ b/specs/Coliform-sample-column-defs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\ese-csv\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\ese-csv\specs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A349D34-C2E2-4F12-A447-5093913B054C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8832EE6F-BBD9-4C64-B288-D2EDCC4B6386}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coliform Sample" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="145">
   <si>
     <t>Optionality</t>
   </si>
@@ -207,12 +207,6 @@
     <t>Validation Formula</t>
   </si>
   <si>
-    <t>Input Message</t>
-  </si>
-  <si>
-    <t>Error Message</t>
-  </si>
-  <si>
     <t>Lab Sample ID</t>
   </si>
   <si>
@@ -285,13 +279,6 @@
     <t>Conditional Formatting</t>
   </si>
   <si>
-    <t>=LEN($A6)=0
-=COUNTIF($A$6:$A$6,A6)&gt;1</t>
-  </si>
-  <si>
-    <t>=AND(LEN($A6)&gt;0,LEN($C6)=0)</t>
-  </si>
-  <si>
     <t>Custom</t>
   </si>
   <si>
@@ -301,12 +288,6 @@
     <t>List</t>
   </si>
   <si>
-    <t>Acceptable values are "Y" or "N".</t>
-  </si>
-  <si>
-    <t>"y","n"</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -322,39 +303,15 @@
     <t>&lt;= 20</t>
   </si>
   <si>
-    <t>&lt;= 10</t>
-  </si>
-  <si>
-    <t>Must not be longer than 20 characters.</t>
-  </si>
-  <si>
-    <t>Must not be longer than 10 characters.</t>
-  </si>
-  <si>
-    <t>Must be unique and not longer than 20 characters.</t>
-  </si>
-  <si>
-    <t>Must not be longer than 12 characters.</t>
-  </si>
-  <si>
     <t>Sampling Point ID</t>
   </si>
   <si>
     <t>null</t>
   </si>
   <si>
-    <t>Identifies sample category as either Total Coliform / Lead and Copper / General / Chemical / Radionuclide, etc.</t>
-  </si>
-  <si>
     <t>"TC"</t>
   </si>
   <si>
-    <t>Indicates whether the sample is a replacement. (Y/N)</t>
-  </si>
-  <si>
-    <t>Indicates whether the sample is taken for compliance. (Y/N)</t>
-  </si>
-  <si>
     <t>For Compliance</t>
   </si>
   <si>
@@ -370,26 +327,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>A unique identifier assigned or used by the laboratory.
-(Required, 20 characters max.)</t>
-  </si>
-  <si>
-    <t>State-assigned Public Water System identifier.
-(Required, 10 characters max.)</t>
-  </si>
-  <si>
-    <t>An additional identifier to identify the sample at time of collection.
-(Optional, 20 characters max.)</t>
-  </si>
-  <si>
-    <t>State-assigned identifier for a Water System Facility (e.g., Treatment Plant/Distribution System/Well) within a Public Water System.
-(Required, 10 characters max.)</t>
-  </si>
-  <si>
-    <t>Identifier for the sample station/location within the Water System Facility from which the sample is drawn.
-(Required, 12 characters max.)</t>
-  </si>
-  <si>
     <t>"N" if blank</t>
   </si>
   <si>
@@ -405,134 +342,27 @@
     <t>&gt;= "0:00"</t>
   </si>
   <si>
-    <t>The calendar date when collection of the sample was finished.
-(Required.)</t>
-  </si>
-  <si>
-    <t>The local time when collection of the sample was finished.
-Enter as a time, e.g., "1:30 pm" or "13:30".
-(Optional.)</t>
-  </si>
-  <si>
-    <t>Must be formatted as a time.</t>
-  </si>
-  <si>
     <t>=SampleTypesList</t>
   </si>
   <si>
-    <t>RT = Routine, RP = Repeat, 
-SP = Special, BB = Batch Blank, 
-FB = Field Blank, 
-PE = Performance Evaluation, 
-SB = Shipping Blank, 
-ST = Split Blank, 
-MR = Maximum Residence Time, 
-MS = Matrix Spike, TG = Triggered</t>
-  </si>
-  <si>
-    <t>Acceptable values:
-RT, RP, SP, BB, FB, PE, SB, ST, MR, MS, TG</t>
-  </si>
-  <si>
-    <t>Acceptable values:
-DN, NF, OR, OT, UP</t>
-  </si>
-  <si>
     <t>=RepeatLocationsList</t>
   </si>
   <si>
-    <t>Must be a date no later than the current date and the Sample Collection Date.</t>
-  </si>
-  <si>
-    <t>Must be a date no later than the current date.</t>
-  </si>
-  <si>
-    <t>=AND(RC18&lt;=RC13,RC18&lt;=TODAY())</t>
-  </si>
-  <si>
     <t>=COUNTIF(R6C1:R6C1,RC)&lt;=1</t>
   </si>
   <si>
-    <t>=AND(LEN(RC13)&gt;0,RC13&lt;=TODAY())</t>
-  </si>
-  <si>
-    <t>The calendar date when the sample was received at the laboratory.
-(Optional.)</t>
-  </si>
-  <si>
-    <t>DN = Downstream within 5 connections of original sample location
-NF = Near First Service Connection
-OR = Original Site
-OT = Other
-UP = Upstream within 5 connections of original sample location
-(Only required if sample is a repeat.)</t>
-  </si>
-  <si>
-    <t>=AND($A6="RP",LEN($C6)=0)</t>
-  </si>
-  <si>
     <t>&lt;= 40</t>
   </si>
   <si>
-    <t>&lt;= 9</t>
-  </si>
-  <si>
-    <t>&lt;= 12</t>
-  </si>
-  <si>
-    <t>"Lastname, Firstname"
-(Optional.)</t>
-  </si>
-  <si>
-    <t>CSV column</t>
-  </si>
-  <si>
-    <t>The volume of water collected for the sample.</t>
-  </si>
-  <si>
-    <t>Must not be longer than 40 characters.</t>
-  </si>
-  <si>
-    <t>Code that indicates the Method used to collect the sample.</t>
-  </si>
-  <si>
-    <t>Free chlorine “Field Result” value measured at the time/location of sample collection in mg/L.
-(Optional.)</t>
-  </si>
-  <si>
-    <t>Total chlorine “Field Result” value measured at the time/location of sample collection in mg/L.
-(Optional.)</t>
-  </si>
-  <si>
     <t>Number, 2 decimal places</t>
   </si>
   <si>
     <t>Decimal</t>
   </si>
   <si>
-    <t>Between 0.01 and 99</t>
-  </si>
-  <si>
-    <t>Enter a number between 0.01 and 99.</t>
-  </si>
-  <si>
     <t>Original Lab Sample ID</t>
   </si>
   <si>
-    <t>=LEN($A6)=0</t>
-  </si>
-  <si>
-    <t>=AND($A6="RP",LEN($A6)&gt;0,LEN($C6)=0)</t>
-  </si>
-  <si>
-    <t>The identifier for the original sample that this sample replaces.
-(Required if repeat, 20 characters max.)</t>
-  </si>
-  <si>
-    <t>The calendar date when the original sample was collected.
-(Required if repeat.)</t>
-  </si>
-  <si>
     <t>Text</t>
   </si>
   <si>
@@ -542,9 +372,6 @@
     <t>Sample Collector Full Name</t>
   </si>
   <si>
-    <t>&lt;= 2</t>
-  </si>
-  <si>
     <t>CSV Column Name</t>
   </si>
   <si>
@@ -575,7 +402,74 @@
     <t>"000"</t>
   </si>
   <si>
-    <t>discriminator</t>
+    <t>=LEN(R6C1)=0
+=COUNTIF(R6C1:R6C1)&gt;1</t>
+  </si>
+  <si>
+    <t>CSV col #</t>
+  </si>
+  <si>
+    <t>Record Type</t>
+  </si>
+  <si>
+    <t>=AND(LEN(RC1)&gt;0,LEN(RC3)=0)</t>
+  </si>
+  <si>
+    <t>YesNoList</t>
+  </si>
+  <si>
+    <t>1 &lt;= x &lt;= 9</t>
+  </si>
+  <si>
+    <t>1 &lt;= x &lt;= 10</t>
+  </si>
+  <si>
+    <t>1 &lt;= x &lt;= 12</t>
+  </si>
+  <si>
+    <t>=AND(LEN(RC1)&gt;0,LEN(RC5)=0)</t>
+  </si>
+  <si>
+    <t>=AND(LEN(RC1)&gt;0,LEN(RC6)=0)</t>
+  </si>
+  <si>
+    <t>=AND(LEN(RC1)&gt;0,LEN(RC7)=0)</t>
+  </si>
+  <si>
+    <t>=AND(LEN(RC1)&gt;0,LEN(RC8)=0)</t>
+  </si>
+  <si>
+    <t>=AND(LEN(RC8)&gt;0,RC8&lt;=TODAY())</t>
+  </si>
+  <si>
+    <t>=AND(LEN(RC1)&gt;0,LEN(RC10)=0)</t>
+  </si>
+  <si>
+    <t>Date &lt;=</t>
+  </si>
+  <si>
+    <t>Between 0.01 and 99.0</t>
+  </si>
+  <si>
+    <t>=AND(LEN(RC1)&gt;0,RC10="Repeat",LEN(RC11)=0)</t>
+  </si>
+  <si>
+    <t>=OR(RC10&lt;&gt;"Repeat",LEN(RC)&gt;0)</t>
+  </si>
+  <si>
+    <t>Original Sample Collection Date</t>
+  </si>
+  <si>
+    <t>=MIN(RC8,TODAY())</t>
+  </si>
+  <si>
+    <t>=AND(LEN(RC1)&gt;0,RC10="Repeat",LEN(RC16)=0)</t>
+  </si>
+  <si>
+    <t>=AND(LEN(RC1)&gt;0,RC10="Repeat",LEN(RC17)=0)</t>
+  </si>
+  <si>
+    <t>=OR(RC10&lt;&gt;"Repeat",AND(LEN(RC)&gt;0,RC&lt;=TODAY()))</t>
   </si>
 </sst>
 </file>
@@ -619,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -646,9 +540,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -662,12 +553,51 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="21">
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -680,9 +610,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -714,27 +641,6 @@
     <dxf>
       <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -754,40 +660,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{636125F0-68A9-4682-81D8-01BD3AB67D26}" name="Table1" displayName="Table1" ref="A1:O33" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A1:O33" xr:uid="{2F280BB8-D779-4B36-9F17-3D7EA5A2454A}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
-    <filterColumn colId="8" hiddenButton="1"/>
-    <filterColumn colId="9" hiddenButton="1"/>
-    <filterColumn colId="10" hiddenButton="1"/>
-    <filterColumn colId="11" hiddenButton="1"/>
-    <filterColumn colId="12" hiddenButton="1"/>
-    <filterColumn colId="13" hiddenButton="1"/>
-    <filterColumn colId="14" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{3193A6D3-813B-4494-AEED-01D6509FCA0D}" name="CSV Column Name" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{057EA208-1889-4E3C-A179-F312337D9867}" name="CSV column" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{5C52F15D-4AC8-44CE-A401-3402D3CD4152}" name="Data Type" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{FFD71D9C-951A-4BB1-9000-9A1C4C3F71D3}" name="Optionality" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{6FEED7B4-CF3F-4593-BB9F-5CFA5FA5B692}" name="Size" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{563427BF-63BA-491F-9B6F-4E02453C643B}" name="Business Rules" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{A9E34622-C2B4-476B-A018-EABC1256DC10}" name="User Editable" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{9DA3EF2F-E261-414A-B10C-F88F2052640F}" name="Generated" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{636125F0-68A9-4682-81D8-01BD3AB67D26}" name="Table1" displayName="Table1" ref="A1:M33" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <tableColumns count="13">
     <tableColumn id="6" xr3:uid="{57EF6AB6-6C4C-4170-BD9B-BF376C46C5DF}" name="Title" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{AA61284F-4409-4E18-9405-8F2EAA78028A}" name="Format" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{94BA7C53-9CFA-4072-B1A4-7E9CE9D9DDF7}" name="Conditional Formatting" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{22AE72C5-BA89-443A-81AF-BCF4B114454C}" name="Validation" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{5DE66E18-4141-4BDD-B41D-2782AC810F6E}" name="Validation Formula" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{60BE18BF-1CC3-41F5-88B4-4DB0FDB8DAB2}" name="Input Message" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{536D055F-E1CC-40E7-AD2E-DFE2F9E3CF41}" name="Error Message" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{3193A6D3-813B-4494-AEED-01D6509FCA0D}" name="CSV Column Name" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{057EA208-1889-4E3C-A179-F312337D9867}" name="CSV col #" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{5C52F15D-4AC8-44CE-A401-3402D3CD4152}" name="Data Type" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{FFD71D9C-951A-4BB1-9000-9A1C4C3F71D3}" name="Optionality" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{6FEED7B4-CF3F-4593-BB9F-5CFA5FA5B692}" name="Size" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{563427BF-63BA-491F-9B6F-4E02453C643B}" name="Business Rules" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{A9E34622-C2B4-476B-A018-EABC1256DC10}" name="User Editable" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{9DA3EF2F-E261-414A-B10C-F88F2052640F}" name="Generated" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{AA61284F-4409-4E18-9405-8F2EAA78028A}" name="Format" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{94BA7C53-9CFA-4072-B1A4-7E9CE9D9DDF7}" name="Conditional Formatting" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{22AE72C5-BA89-443A-81AF-BCF4B114454C}" name="Validation" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{5DE66E18-4141-4BDD-B41D-2782AC810F6E}" name="Validation Formula" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1057,7 +944,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1066,58 +953,58 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" customWidth="1"/>
-    <col min="14" max="14" width="35.140625" style="11" customWidth="1"/>
-    <col min="15" max="15" width="28.5703125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="28.5703125" customWidth="1"/>
     <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>160</v>
+        <v>54</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>161</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>55</v>
@@ -1125,1270 +1012,1134 @@
       <c r="M1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7">
+      <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" s="8">
+        <v>109</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="8">
         <v>20</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="H2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-    </row>
-    <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" s="3">
+        <v>109</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="3">
         <v>20</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="3">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E4" s="3">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" s="3">
+        <v>109</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="3">
         <v>9</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="H5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="O5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="7">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E7" s="3">
+        <v>109</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="3">
         <v>10</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>169</v>
+        <v>84</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7">
+      <c r="C8" s="7">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E8" s="3">
+        <v>109</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E9" s="3">
+        <v>109</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="3">
         <v>10</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="K9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="3">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="3">
+        <v>40</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="7">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E10" s="3">
-        <v>12</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E11" s="3">
-        <v>40</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
+      <c r="I11" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="7">
+      <c r="C12" s="7">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E12" s="3">
+        <v>109</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="3">
         <v>2</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="H12" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C13" s="2">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E13" s="3">
+        <v>109</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="3">
         <v>1</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="K13" s="5" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="7">
+      <c r="C14" s="7">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E14" s="3">
+        <v>95</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="3">
         <v>8</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="H14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="L14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="M14" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="7">
+      <c r="C16" s="7">
         <v>15</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E16" s="3">
+        <v>109</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="3">
         <v>2</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2" t="s">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="135" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="2">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="7">
+      <c r="C18" s="7">
         <v>17</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E18" s="3">
+        <v>95</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="3">
         <v>8</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="H18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="2">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="3">
+        <v>40</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="M18" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="2">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E19" s="3">
-        <v>40</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="7">
+      <c r="C20" s="7">
         <v>19</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E20" s="3">
+        <v>109</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="3">
         <v>9</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="O20" s="6"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="7">
+      <c r="C21" s="7">
         <v>20</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E21" s="3">
+        <v>109</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-    </row>
-    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="2">
+      <c r="C22" s="2">
         <v>21</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E22" s="3">
+        <v>109</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="3">
         <v>12</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="O22" s="6"/>
-    </row>
-    <row r="23" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="7">
+      <c r="C23" s="7">
         <v>22</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="H23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="2">
+      <c r="C24" s="2">
         <v>23</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="H24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="7">
+      <c r="C25" s="7">
         <v>24</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="2">
+      <c r="C26" s="2">
         <v>25</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="7">
+      <c r="C27" s="7">
         <v>26</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="2">
+      <c r="C28" s="2">
         <v>27</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E28" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="2"/>
+      <c r="H28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="7">
+      <c r="C29" s="7">
         <v>28</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="2"/>
+      <c r="H29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-    </row>
-    <row r="30" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="7">
+      <c r="C30" s="7">
         <v>29</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E30" s="3">
+        <v>109</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="3">
         <v>20</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2" t="s">
-        <v>151</v>
-      </c>
+      <c r="H30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="L30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="2">
+        <v>30</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="3">
+        <v>8</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="M30" s="5"/>
-      <c r="N30" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="2">
-        <v>30</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E31" s="3">
-        <v>8</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>153</v>
+        <v>100</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="O31" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="7">
+      <c r="C32" s="7">
         <v>31</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E32" s="3">
+        <v>109</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="3">
         <v>10</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="H32" s="2" t="s">
-        <v>168</v>
+        <v>84</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="2">
+      <c r="C33" s="2">
         <v>32</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E33" s="3">
+        <v>109</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="3">
         <v>10</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="H33" s="2" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B33">
-    <cfRule type="expression" dxfId="19" priority="10">
-      <formula>LEN($B2)=0</formula>
+  <conditionalFormatting sqref="C2:C33">
+    <cfRule type="expression" dxfId="5" priority="9">
+      <formula>LEN($C2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:O33">
-    <cfRule type="expression" dxfId="18" priority="9">
-      <formula>$G2="No"</formula>
+  <conditionalFormatting sqref="A2:M33">
+    <cfRule type="expression" dxfId="4" priority="10">
+      <formula>$H2="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H33">
-    <cfRule type="expression" dxfId="17" priority="8">
-      <formula>AND($G2="No",LEN($H2)=0)</formula>
+  <conditionalFormatting sqref="I2:I33">
+    <cfRule type="expression" dxfId="3" priority="8">
+      <formula>AND($H2="No",LEN($I2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
